--- a/LubanTools/DesignerConfigs/Datas/BridgeConfig_桥梁表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/BridgeConfig_桥梁表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3DKDDH\sky3d-cfg\LubanTools\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4A383A-1B5E-44C4-9C7C-AF23DF239F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506920C5-EFD8-4EC7-A357-5C5F2AD679E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>Id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>c,s</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -589,7 +593,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -666,13 +670,13 @@
         <v>6</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
